--- a/phase_2/DataDictionary.xlsx
+++ b/phase_2/DataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITY\SUBJECTS\DB - Project Build a Data Mart in SQL\AirBnB_DBMS_Imitation\phase_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7983CAD1-4405-4BB4-8D8D-A8C2A458A072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72D08A-95AC-4A41-BA63-57B2FE95242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" xr2:uid="{8A84ADC0-9361-4306-9B2B-248047F272A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="161">
   <si>
     <t>Attribute Name</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>VARCHAR(128)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -921,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F77054-DA0C-4267-B09D-3062774A939F}">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D157"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1167,7 @@
         <v>114</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
